--- a/data/original_suporteMilho.xlsx
+++ b/data/original_suporteMilho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiano/Documents/analysis/reporteSemanal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F42468-EB75-EF4B-BA2E-2006CA0EA9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9125C09-6449-B24E-9733-E972FBA4EBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="500" windowWidth="20560" windowHeight="16440" activeTab="2" xr2:uid="{D3691A72-1D75-4D53-A4B7-90B12D9BB150}"/>
+    <workbookView xWindow="8240" yWindow="500" windowWidth="20560" windowHeight="16400" activeTab="2" xr2:uid="{D3691A72-1D75-4D53-A4B7-90B12D9BB150}"/>
   </bookViews>
   <sheets>
     <sheet name="Checks" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="253">
   <si>
     <t>Check</t>
   </si>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>Ferrugem Polysora / Southern Rust Rating</t>
-  </si>
-  <si>
-    <t>SYN488VIP3</t>
   </si>
   <si>
     <t>SXC1331ZL.0 WTP6741ZL.2/ACYYE978</t>
@@ -2895,11 +2892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594A60A8-65B9-48DE-BBF2-469FC682A2B4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2910,13 +2906,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" t="s">
         <v>252</v>
       </c>
-      <c r="B1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -2924,23 +2920,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>79</v>
       </c>
@@ -2948,708 +2944,708 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B11" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>159</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>163</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>165</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>167</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>168</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>170</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>171</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B28" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B32" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B33" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B37" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B39" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>172</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>173</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>174</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>175</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>176</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>177</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>178</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>179</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>181</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B50" s="7" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>230</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" s="7" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B61" s="7" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="B63" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="7" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>182</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>183</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>184</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>185</v>
-      </c>
-      <c r="B71" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>186</v>
       </c>
       <c r="B72" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="B75" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>188</v>
-      </c>
-      <c r="B76" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>189</v>
       </c>
       <c r="B77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>192</v>
-      </c>
-      <c r="B80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>193</v>
       </c>
       <c r="B81" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>194</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>195</v>
-      </c>
-      <c r="B83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>196</v>
       </c>
       <c r="B84" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>197</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B87" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>198</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>199</v>
-      </c>
-      <c r="B88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>160</v>
       </c>
       <c r="B89" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>200</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -3660,7 +3656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>201</v>
       </c>
@@ -3668,7 +3664,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>202</v>
       </c>
@@ -3676,7 +3672,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>203</v>
       </c>
@@ -3684,7 +3680,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -3692,7 +3688,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -3700,7 +3696,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -3708,7 +3704,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>207</v>
       </c>
@@ -3716,7 +3712,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>50</v>
       </c>
@@ -3724,15 +3720,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -3740,7 +3736,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -3748,7 +3744,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -3756,7 +3752,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -3764,7 +3760,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>143</v>
       </c>
@@ -3772,7 +3768,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>49</v>
       </c>
@@ -3780,55 +3776,55 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>60</v>
       </c>
@@ -3836,39 +3832,39 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B118" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B119" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -3876,7 +3872,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -3884,7 +3880,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -3892,7 +3888,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -3901,18 +3897,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B124" xr:uid="{594A60A8-65B9-48DE-BBF2-469FC682A2B4}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="NK555VIP3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B124" xr:uid="{594A60A8-65B9-48DE-BBF2-469FC682A2B4}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D771DD00D072344AB61A05E1B9DBCA31" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56b42e65e3c873f5a71193aedd2a7ebe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dc6a0a8-bfbb-4dfb-9ca6-66b146c89134" xmlns:ns3="d000c3fc-646a-45b9-8f28-d58da64eed72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c23607bce8552aa6cc2b33508d5293c0" ns2:_="" ns3:_="">
     <xsd:import namespace="6dc6a0a8-bfbb-4dfb-9ca6-66b146c89134"/>
@@ -4129,12 +4125,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4145,6 +4135,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B03A569-7D12-46E7-866A-8C879B2EE202}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6dc6a0a8-bfbb-4dfb-9ca6-66b146c89134"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d000c3fc-646a-45b9-8f28-d58da64eed72"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20067772-FF3E-4BF2-BF52-087B84D972F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4163,23 +4170,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B03A569-7D12-46E7-866A-8C879B2EE202}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6dc6a0a8-bfbb-4dfb-9ca6-66b146c89134"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d000c3fc-646a-45b9-8f28-d58da64eed72"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B3C2A8F-D301-4EF8-A85A-44ED1557E987}">
   <ds:schemaRefs>

--- a/data/original_suporteMilho.xlsx
+++ b/data/original_suporteMilho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiano/Documents/analysis/reporteSemanal/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syngenta-my.sharepoint.com/personal/chris_simoes_syngenta_com/Documents/Documents/AnalysisR/reporteSemanal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9125C09-6449-B24E-9733-E972FBA4EBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B9125C09-6449-B24E-9733-E972FBA4EBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B03E1EF-F84A-4FB8-91B8-A251001C95A8}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="500" windowWidth="20560" windowHeight="16400" activeTab="2" xr2:uid="{D3691A72-1D75-4D53-A4B7-90B12D9BB150}"/>
+    <workbookView xWindow="3480" yWindow="1515" windowWidth="21600" windowHeight="13635" xr2:uid="{D3691A72-1D75-4D53-A4B7-90B12D9BB150}"/>
   </bookViews>
   <sheets>
     <sheet name="Checks" sheetId="26" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sinonimos" sheetId="28" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checks!$A$1:$E$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checks!$A$1:$E$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sinonimos!$A$1:$B$124</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="252">
   <si>
     <t>Check</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>NS90 PRO2</t>
-  </si>
-  <si>
-    <t>SYN555</t>
   </si>
   <si>
     <t xml:space="preserve">Virus </t>
@@ -805,7 +802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +849,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -888,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -940,6 +945,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,7 +966,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1254,21 +1262,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EDAA8D-8E1B-4C97-952E-CACA70ECA49E}">
-  <dimension ref="A1:H90"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
@@ -1336,7 +1345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
@@ -1387,7 +1396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>87</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>89</v>
       </c>
@@ -1438,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1455,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -1506,7 +1515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
@@ -1523,9 +1532,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -1540,9 +1549,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -1551,15 +1560,15 @@
         <v>10</v>
       </c>
       <c r="D17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -1574,9 +1583,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -1591,9 +1600,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -1608,9 +1617,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -1625,9 +1634,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -1642,9 +1651,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -1659,9 +1668,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -1670,15 +1679,15 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -1693,26 +1702,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -1721,15 +1730,15 @@
         <v>13</v>
       </c>
       <c r="D27" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -1744,9 +1753,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -1761,9 +1770,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -1777,10 +1786,11 @@
       <c r="E30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -1794,11 +1804,10 @@
       <c r="E31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -1807,15 +1816,15 @@
         <v>13</v>
       </c>
       <c r="D32" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -1830,9 +1839,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
@@ -1841,15 +1850,15 @@
         <v>13</v>
       </c>
       <c r="D34" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -1864,9 +1873,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
@@ -1875,15 +1884,15 @@
         <v>13</v>
       </c>
       <c r="D36" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
@@ -1898,26 +1907,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="6">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -1932,9 +1941,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -1949,9 +1958,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -1966,9 +1975,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -1983,9 +1992,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -2000,9 +2009,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -2011,15 +2020,15 @@
         <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -2034,9 +2043,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -2045,32 +2054,32 @@
         <v>12</v>
       </c>
       <c r="D46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -2085,9 +2094,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -2102,9 +2111,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -2119,9 +2128,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
@@ -2136,9 +2145,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -2153,9 +2162,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -2164,15 +2173,15 @@
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -2181,38 +2190,38 @@
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="D56" s="2">
         <v>6</v>
@@ -2221,15 +2230,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>34</v>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="2">
         <v>6</v>
@@ -2238,15 +2247,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
-        <v>214</v>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D58" s="2">
         <v>6</v>
@@ -2255,15 +2264,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>27</v>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D59" s="2">
         <v>6</v>
@@ -2272,15 +2281,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D60" s="2">
         <v>6</v>
@@ -2289,15 +2298,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>37</v>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" s="2">
         <v>6</v>
@@ -2306,15 +2315,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D62" s="2">
         <v>6</v>
@@ -2323,15 +2332,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>16</v>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D63" s="2">
         <v>6</v>
@@ -2340,15 +2349,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>32</v>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="2">
         <v>6</v>
@@ -2357,32 +2366,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D65" s="2">
-        <v>6</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
-        <v>110</v>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="3">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D66" s="3">
         <v>7</v>
@@ -2391,15 +2400,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="3">
         <v>7</v>
@@ -2408,26 +2417,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="3">
-        <v>1</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D68" s="3">
+    <row r="68" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
         <v>7</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E68" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="B69" s="6">
         <v>1</v>
@@ -2442,128 +2451,128 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="6">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="6">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2">
         <v>7</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="6">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="E71" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="6">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="2">
+    <row r="73" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="6">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="2">
         <v>4</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="2">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="2">
+    <row r="75" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="6">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2">
         <v>7</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="6">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="2">
-        <v>5</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="6">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="2">
-        <v>5</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="6">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="2">
-        <v>4</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" s="6">
         <v>1</v>
@@ -2578,26 +2587,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="2">
+        <v>34</v>
+      </c>
+      <c r="B78" s="6">
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="2">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
-        <v>32</v>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
@@ -2606,15 +2615,15 @@
         <v>10</v>
       </c>
       <c r="D79" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B80" s="6">
         <v>1</v>
@@ -2623,15 +2632,15 @@
         <v>10</v>
       </c>
       <c r="D80" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B81" s="6">
         <v>1</v>
@@ -2640,15 +2649,15 @@
         <v>10</v>
       </c>
       <c r="D81" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82" s="6">
         <v>1</v>
@@ -2663,9 +2672,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>122</v>
+    <row r="83" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B83" s="6">
         <v>1</v>
@@ -2674,15 +2683,15 @@
         <v>10</v>
       </c>
       <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B84" s="6">
         <v>1</v>
@@ -2694,29 +2703,29 @@
         <v>5</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="6">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="2">
+        <v>5</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="6">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B86" s="6">
         <v>1</v>
@@ -2728,79 +2737,55 @@
         <v>5</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="6">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="6">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="2">
-        <v>5</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>114</v>
+    <row r="88" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B88" s="6">
         <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2">
         <v>5</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" s="6">
-        <v>1</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="2">
-        <v>4</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="6">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2">
-        <v>5</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E90" xr:uid="{B0EDAA8D-8E1B-4C97-952E-CACA70ECA49E}"/>
+  <autoFilter ref="A1:E88" xr:uid="{B0EDAA8D-8E1B-4C97-952E-CACA70ECA49E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SYN555"/>
+        <filter val="SYN555 VIP3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2814,13 +2799,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -2828,31 +2813,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -2860,7 +2845,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -2868,20 +2853,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2894,25 +2879,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594A60A8-65B9-48DE-BBF2-469FC682A2B4}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
         <v>251</v>
       </c>
-      <c r="B1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -2920,39 +2905,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
@@ -2960,71 +2945,71 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>158</v>
       </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>159</v>
       </c>
-      <c r="B13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>78</v>
       </c>
@@ -3032,7 +3017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -3040,47 +3025,47 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>162</v>
       </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>163</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>165</v>
       </c>
-      <c r="B22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3088,55 +3073,55 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
         <v>168</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>170</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>23</v>
       </c>
@@ -3144,15 +3129,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>92</v>
       </c>
@@ -3160,23 +3145,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -3184,15 +3169,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>91</v>
       </c>
@@ -3200,700 +3185,700 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
       <c r="B40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>173</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>174</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>175</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>177</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>178</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>180</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>182</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>183</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>184</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>185</v>
       </c>
-      <c r="B72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>186</v>
       </c>
-      <c r="B73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>187</v>
-      </c>
       <c r="B74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>188</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>190</v>
-      </c>
-      <c r="B79" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>191</v>
-      </c>
-      <c r="B80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>192</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>193</v>
-      </c>
-      <c r="B82" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>194</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>195</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>196</v>
-      </c>
-      <c r="B85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>197</v>
-      </c>
-      <c r="B86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>198</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>199</v>
       </c>
-      <c r="B89" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>200</v>
-      </c>
       <c r="B91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>201</v>
       </c>
-      <c r="B95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>202</v>
       </c>
-      <c r="B96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>203</v>
       </c>
-      <c r="B97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>204</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>205</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>206</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>207</v>
-      </c>
-      <c r="B101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>209</v>
-      </c>
-      <c r="B105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>143</v>
-      </c>
-      <c r="B108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B112" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B113" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B114" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>224</v>
+      </c>
+      <c r="B117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>225</v>
       </c>
-      <c r="B117" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>221</v>
-      </c>
-      <c r="B118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>224</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>226</v>
-      </c>
-      <c r="B120" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>58</v>
       </c>
       <c r="B121" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>59</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3903,9 +3888,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4126,27 +4114,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B03A569-7D12-46E7-866A-8C879B2EE202}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B3C2A8F-D301-4EF8-A85A-44ED1557E987}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6dc6a0a8-bfbb-4dfb-9ca6-66b146c89134"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d000c3fc-646a-45b9-8f28-d58da64eed72"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4171,9 +4147,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B3C2A8F-D301-4EF8-A85A-44ED1557E987}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B03A569-7D12-46E7-866A-8C879B2EE202}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="6dc6a0a8-bfbb-4dfb-9ca6-66b146c89134"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d000c3fc-646a-45b9-8f28-d58da64eed72"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>